--- a/test/cognition-map-201903011.xlsx
+++ b/test/cognition-map-201903011.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713FBB14-3E70-4D5A-815E-BC345645AFD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-150" windowWidth="22425" windowHeight="8010"/>
+    <workbookView xWindow="-26880" yWindow="510" windowWidth="19680" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>延伸知识</t>
   </si>
@@ -105,15 +106,58 @@
     <t>[KP1-1]植物</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
+  <si>
+    <t>[KP1-1-1]植物1</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>[KP1-1-2]植物2</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>[KP1-1-3]植物3</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>[KP1-1-3-1]植物3</t>
+  </si>
+  <si>
+    <t>[KP1-1-3-2]植物4</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>[KP1-1-3-3]植物5</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>[KP2]系</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>[KP2-1]植物想</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>[MP1-2]植物3222</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>[MP1-1]植物3333</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>[KP2-2]植物想11</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -730,47 +774,47 @@
     </xf>
   </cellXfs>
   <cellStyles count="41">
-    <cellStyle name="标题 1 2" xfId="3"/>
-    <cellStyle name="标题 1 3" xfId="21"/>
-    <cellStyle name="标题 2 2" xfId="4"/>
-    <cellStyle name="标题 2 3" xfId="22"/>
-    <cellStyle name="标题 3 2" xfId="5"/>
-    <cellStyle name="标题 3 3" xfId="23"/>
-    <cellStyle name="标题 4 2" xfId="6"/>
-    <cellStyle name="标题 4 3" xfId="24"/>
-    <cellStyle name="标题 5" xfId="2"/>
-    <cellStyle name="标题 6" xfId="20"/>
-    <cellStyle name="差 2" xfId="7"/>
-    <cellStyle name="差 3" xfId="25"/>
+    <cellStyle name="标题 1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="标题 1 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="标题 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="标题 2 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="标题 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="标题 3 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="标题 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="标题 4 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="标题 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="标题 6" xfId="20" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="差 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="差 3" xfId="25" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 2 2" xfId="39"/>
-    <cellStyle name="常规 2 3" xfId="38"/>
-    <cellStyle name="常规 3" xfId="19"/>
-    <cellStyle name="常规 4" xfId="37"/>
-    <cellStyle name="好 2" xfId="8"/>
-    <cellStyle name="好 3" xfId="26"/>
-    <cellStyle name="汇总 2" xfId="9"/>
-    <cellStyle name="汇总 3" xfId="27"/>
-    <cellStyle name="货币 2" xfId="40"/>
-    <cellStyle name="计算 2" xfId="10"/>
-    <cellStyle name="计算 3" xfId="28"/>
-    <cellStyle name="检查单元格 2" xfId="11"/>
-    <cellStyle name="检查单元格 3" xfId="29"/>
-    <cellStyle name="解释性文本 2" xfId="12"/>
-    <cellStyle name="解释性文本 3" xfId="30"/>
-    <cellStyle name="警告文本 2" xfId="13"/>
-    <cellStyle name="警告文本 3" xfId="31"/>
-    <cellStyle name="链接单元格 2" xfId="14"/>
-    <cellStyle name="链接单元格 3" xfId="32"/>
-    <cellStyle name="适中 2" xfId="15"/>
-    <cellStyle name="适中 3" xfId="33"/>
-    <cellStyle name="输出 2" xfId="16"/>
-    <cellStyle name="输出 3" xfId="34"/>
-    <cellStyle name="输入 2" xfId="17"/>
-    <cellStyle name="输入 3" xfId="35"/>
-    <cellStyle name="注释 2" xfId="18"/>
-    <cellStyle name="注释 3" xfId="36"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="常规 2 3" xfId="38" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="常规 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="常规 4" xfId="37" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="好 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="好 3" xfId="26" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="汇总 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="汇总 3" xfId="27" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="货币 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="计算 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="计算 3" xfId="28" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="检查单元格 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="检查单元格 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="解释性文本 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="解释性文本 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="警告文本 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="警告文本 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="链接单元格 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="链接单元格 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="适中 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="适中 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="输出 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="输出 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="输入 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="输入 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="注释 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="注释 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -828,7 +872,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -861,9 +905,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -896,6 +957,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1071,14 +1149,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.125" customWidth="1"/>
     <col min="2" max="2" width="21.625" customWidth="1"/>
@@ -1090,7 +1168,7 @@
     <col min="9" max="9" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1098,7 +1176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1106,7 +1184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1117,10 +1195,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>1</v>
@@ -1129,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -1140,7 +1218,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1">
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -1151,7 +1229,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1">
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
@@ -1162,79 +1240,101 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1">
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1">
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1242,7 +1342,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1250,7 +1350,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1258,7 +1358,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1266,7 +1366,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1274,7 +1374,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1282,7 +1382,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1290,7 +1390,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1298,7 +1398,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1306,7 +1406,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1314,7 +1414,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1322,7 +1422,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1330,7 +1430,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1338,7 +1438,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1346,7 +1446,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1354,7 +1454,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1362,7 +1462,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1374,12 +1474,12 @@
   <dataConsolidate/>
   <phoneticPr fontId="17" type="noConversion"/>
   <dataValidations xWindow="300" yWindow="268" count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="填写说明" prompt="1 小学_x000a_2 初中_x000a_3 高中" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="填写说明" prompt="1 小学_x000a_2 初中_x000a_3 高中" sqref="A2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="填写提示" sqref="A1"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="填写说明" prompt="1 评估_x000a_2 诊断" sqref="B1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="学科编号" prompt="1 语文 2 数学 _x000a_3 英语 4 物理 _x000a_5 化学 6 生物 _x000a_7 历史 8 地理_x000a_9 音乐 10 政治_x000a_11 科学 12 体育_x000a_13 美术 14 思想品德_x000a_15 其他" sqref="B2">
+    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="填写提示" sqref="A1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="填写说明" prompt="1 评估_x000a_2 诊断" sqref="B1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="学科编号" prompt="1 语文 2 数学 _x000a_3 英语 4 物理 _x000a_5 化学 6 生物 _x000a_7 历史 8 地理_x000a_9 音乐 10 政治_x000a_11 科学 12 体育_x000a_13 美术 14 思想品德_x000a_15 其他" sqref="B2" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15"</formula1>
     </dataValidation>
   </dataValidations>
